--- a/nháp.xlsx
+++ b/nháp.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BI\DATH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{442EE669-64FB-4240-ABDF-BB06793BF2CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D2E3F5-2D9A-49EB-A756-5A44A6697B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1305" yWindow="390" windowWidth="26250" windowHeight="11055" activeTab="2" xr2:uid="{F18130E2-F8FF-4171-B10F-08371FAE3D63}"/>
+    <workbookView xWindow="660" yWindow="2850" windowWidth="26250" windowHeight="11055" activeTab="3" xr2:uid="{F18130E2-F8FF-4171-B10F-08371FAE3D63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9758" uniqueCount="955">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9868" uniqueCount="988">
   <si>
     <t>ProductID</t>
   </si>
@@ -2907,6 +2908,105 @@
   </si>
   <si>
     <t>PID99</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>UnitPrice</t>
+  </si>
+  <si>
+    <t>NDS_ProductID_SK</t>
+  </si>
+  <si>
+    <t>NDS_UnitPrice</t>
+  </si>
+  <si>
+    <t>NDS_StartDate</t>
+  </si>
+  <si>
+    <t>NDS_EndDate</t>
+  </si>
+  <si>
+    <t>NDS_ProductID_NK</t>
+  </si>
+  <si>
+    <t>1899-12-30 10:33:00.000</t>
+  </si>
+  <si>
+    <t>1899-12-30 17:59:00.000</t>
+  </si>
+  <si>
+    <t>1899-12-30 12:42:00.000</t>
+  </si>
+  <si>
+    <t>1899-12-30 10:26:00.000</t>
+  </si>
+  <si>
+    <t>1899-12-30 14:04:00.000</t>
+  </si>
+  <si>
+    <t>1899-12-30 18:27:00.000</t>
+  </si>
+  <si>
+    <t>1899-12-30 15:20:00.000</t>
+  </si>
+  <si>
+    <t>1899-12-30 12:41:00.000</t>
+  </si>
+  <si>
+    <t>1899-12-30 15:33:00.000</t>
+  </si>
+  <si>
+    <t>1899-12-30 10:23:00.000</t>
+  </si>
+  <si>
+    <t>1899-12-30 12:16:00.000</t>
+  </si>
+  <si>
+    <t>1899-12-30 11:07:00.000</t>
+  </si>
+  <si>
+    <t>1899-12-30 19:09:00.000</t>
+  </si>
+  <si>
+    <t>1899-12-30 18:17:00.000</t>
+  </si>
+  <si>
+    <t>1899-12-30 17:54:00.000</t>
+  </si>
+  <si>
+    <t>1899-12-30 15:12:00.000</t>
+  </si>
+  <si>
+    <t>1899-12-30 14:44:00.000</t>
+  </si>
+  <si>
+    <t>1899-12-30 14:53:00.000</t>
+  </si>
+  <si>
+    <t>1899-12-30 10:25:00.000</t>
+  </si>
+  <si>
+    <t>1899-12-30 11:03:00.000</t>
+  </si>
+  <si>
+    <t>1899-12-30 18:00:00.000</t>
+  </si>
+  <si>
+    <t>1899-12-30 10:40:00.000</t>
+  </si>
+  <si>
+    <t>1899-12-30 17:03:00.000</t>
+  </si>
+  <si>
+    <t>1899-12-30 11:15:00.000</t>
   </si>
 </sst>
 </file>
@@ -3271,7 +3371,7 @@
   <dimension ref="A1:F1960"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1960" sqref="A1:F1960"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -85619,15 +85719,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964C1D0B-E148-4F7B-8FA6-C1E3B92D0A3A}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -85648,7 +85749,7 @@
       </c>
       <c r="F1">
         <f>COUNTIF(A:A, A1)</f>
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -85669,7 +85770,7 @@
       </c>
       <c r="F2">
         <f>COUNTIF(A:A, A2)</f>
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -85690,7 +85791,7 @@
       </c>
       <c r="F3">
         <f>COUNTIF(A:A, A3)</f>
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -85711,7 +85812,7 @@
       </c>
       <c r="F5">
         <f t="shared" ref="F5:F13" si="0">COUNTIF(A:A, A5)</f>
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -85732,7 +85833,7 @@
       </c>
       <c r="F6" s="3">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -85752,11 +85853,11 @@
         <v>43537.534722164353</v>
       </c>
       <c r="E7" s="4">
-        <v>45279.497581018521</v>
+        <v>45278.497581018521</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -85776,11 +85877,11 @@
         <v>43537.534027719907</v>
       </c>
       <c r="E8" s="4">
-        <v>45280.497581018521</v>
+        <v>45278.497581018521</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -85800,11 +85901,11 @@
         <v>43537.533333333333</v>
       </c>
       <c r="E9" s="4">
-        <v>45281.497581018521</v>
+        <v>45278.497581018521</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -85828,7 +85929,7 @@
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -85849,7 +85950,7 @@
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -85870,7 +85971,7 @@
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -85891,7 +85992,1606 @@
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>941</v>
+      </c>
+      <c r="B16">
+        <v>99.24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="2">
+        <v>45278.497581018521</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16">
+        <f>COUNTIF(A:A, A16)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>941</v>
+      </c>
+      <c r="B17">
+        <v>42.418999999999997</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="2">
+        <v>43539.586111111108</v>
+      </c>
+      <c r="E17" s="2">
+        <v>45278.497581018521</v>
+      </c>
+      <c r="F17">
+        <f>COUNTIF(A:A, A17)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>941</v>
+      </c>
+      <c r="B18">
+        <v>7.9234999999999998</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="2">
+        <v>43537.532638888886</v>
+      </c>
+      <c r="E18" s="2">
+        <v>43539.586111111108</v>
+      </c>
+      <c r="F18">
+        <f>COUNTIF(A:A, A18)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>941</v>
+      </c>
+      <c r="B20">
+        <v>99.24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="2">
+        <v>45278.497581018521</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ref="F20:F28" si="1">COUNTIF(A:A, A20)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>941</v>
+      </c>
+      <c r="B21" s="3">
+        <v>42.418999999999997</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="4">
+        <v>43539.586111111108</v>
+      </c>
+      <c r="E21" s="4">
+        <v>45278.497581018521</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>941</v>
+      </c>
+      <c r="B22" s="3">
+        <v>42.418999999999997</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="4">
+        <v>43537.534722164353</v>
+      </c>
+      <c r="E22" s="4">
+        <v>43539.586111111108</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>941</v>
+      </c>
+      <c r="B23" s="3">
+        <v>42.418999999999997</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="4">
+        <v>43537.534027719907</v>
+      </c>
+      <c r="E23" s="4">
+        <v>43537.534722164353</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>941</v>
+      </c>
+      <c r="B24" s="3">
+        <v>42.418999999999997</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="4">
+        <v>43537.533333333333</v>
+      </c>
+      <c r="E24" s="4">
+        <v>43537.534027719907</v>
+      </c>
+      <c r="F24" s="3">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>941</v>
+      </c>
+      <c r="B25">
+        <v>42.418999999999997</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="2">
+        <v>43537.532638888886</v>
+      </c>
+      <c r="E25" s="2">
+        <v>45282.497581018521</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>941</v>
+      </c>
+      <c r="B26">
+        <v>99.24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="2">
+        <v>45278.497581018521</v>
+      </c>
+      <c r="E26" s="2">
+        <v>43537.532638888886</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>941</v>
+      </c>
+      <c r="B27">
+        <v>7.9234999999999998</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="2">
+        <v>43539.586111111108</v>
+      </c>
+      <c r="E27" s="2">
+        <v>45278.497581018521</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>941</v>
+      </c>
+      <c r="B28">
+        <v>7.9234999999999998</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="2">
+        <v>43537.532638888886</v>
+      </c>
+      <c r="E28" s="2">
+        <v>43539.586111111108</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>941</v>
+      </c>
+      <c r="B32">
+        <v>99.24</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="2">
+        <v>45278.497581018521</v>
+      </c>
+      <c r="E32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ref="F32:F40" si="2">COUNTIF(A:A, A32)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>941</v>
+      </c>
+      <c r="B33" s="3">
+        <v>42.418999999999997</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="4">
+        <v>43539.586111111108</v>
+      </c>
+      <c r="E33" s="4">
+        <v>45278.497581018521</v>
+      </c>
+      <c r="F33" s="3">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>941</v>
+      </c>
+      <c r="I33" s="3">
+        <v>42.418999999999997</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33" s="4">
+        <v>43537.534027719907</v>
+      </c>
+      <c r="L33" s="4">
+        <v>43537.534722164353</v>
+      </c>
+      <c r="M33" s="3">
+        <f>COUNTIF(A:A, H33)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>941</v>
+      </c>
+      <c r="B34" s="3">
+        <v>42.418999999999997</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="4">
+        <v>43537.534722164353</v>
+      </c>
+      <c r="E34" s="4">
+        <v>43539.586111111108</v>
+      </c>
+      <c r="F34" s="3">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>941</v>
+      </c>
+      <c r="I34" s="3">
+        <v>42.418999999999997</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" s="4">
+        <v>43537.534027719907</v>
+      </c>
+      <c r="L34" s="4">
+        <v>45364.534722222219</v>
+      </c>
+      <c r="M34" s="3">
+        <f>COUNTIF(A:A, H34)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H35" s="3" t="s">
+        <v>941</v>
+      </c>
+      <c r="I35" s="3">
+        <v>42.418999999999997</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" s="4">
+        <v>43537.534027719907</v>
+      </c>
+      <c r="L35" s="4">
+        <v>43537.534722164353</v>
+      </c>
+      <c r="M35" s="3">
+        <f>COUNTIF(A:A, H35)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>941</v>
+      </c>
+      <c r="B36" s="3">
+        <v>42.418999999999997</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="4">
+        <v>43537.533333333333</v>
+      </c>
+      <c r="E36" s="4">
+        <v>43537.534027719907</v>
+      </c>
+      <c r="F36" s="3">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>941</v>
+      </c>
+      <c r="B37">
+        <v>42.418999999999997</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="2">
+        <v>43537.532638888886</v>
+      </c>
+      <c r="E37" s="2">
+        <v>45282.497581018521</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>941</v>
+      </c>
+      <c r="B38">
+        <v>99.24</v>
+      </c>
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="2">
+        <v>45278.497581018521</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43537.532638888886</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>941</v>
+      </c>
+      <c r="B39">
+        <v>7.9234999999999998</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="2">
+        <v>43539.586111111108</v>
+      </c>
+      <c r="E39" s="2">
+        <v>45278.497581018521</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>941</v>
+      </c>
+      <c r="B40">
+        <v>7.9234999999999998</v>
+      </c>
+      <c r="C40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="2">
+        <v>43537.532638888886</v>
+      </c>
+      <c r="E40" s="2">
+        <v>43539.586111111108</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{414AFFCE-FE88-4EDC-A7CF-0388E1C72C7E}">
+  <dimension ref="A1:L27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>955</v>
+      </c>
+      <c r="B1" t="s">
+        <v>956</v>
+      </c>
+      <c r="C1" t="s">
+        <v>957</v>
+      </c>
+      <c r="D1" t="s">
+        <v>958</v>
+      </c>
+      <c r="E1" t="s">
+        <v>959</v>
+      </c>
+      <c r="F1" t="s">
+        <v>960</v>
+      </c>
+      <c r="G1" t="s">
+        <v>961</v>
+      </c>
+      <c r="H1" t="s">
+        <v>962</v>
+      </c>
+      <c r="I1" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>43488</v>
+      </c>
+      <c r="B2" t="s">
+        <v>964</v>
+      </c>
+      <c r="C2" s="2">
+        <v>43488.439583333333</v>
+      </c>
+      <c r="D2">
+        <v>69.971999999999994</v>
+      </c>
+      <c r="E2">
+        <v>1947</v>
+      </c>
+      <c r="F2">
+        <v>69.971999999999994</v>
+      </c>
+      <c r="G2" s="2">
+        <v>43488.439583333333</v>
+      </c>
+      <c r="H2" s="2">
+        <v>43474.486111111109</v>
+      </c>
+      <c r="I2" t="s">
+        <v>949</v>
+      </c>
+      <c r="J2" t="b">
+        <f>C2&gt;=G2&amp;C2 &lt; H2</f>
+        <v>0</v>
+      </c>
+      <c r="K2" t="b">
+        <f>C2&gt;=G2</f>
+        <v>1</v>
+      </c>
+      <c r="L2" t="b">
+        <f>C2 &lt; H2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>43503</v>
+      </c>
+      <c r="B3" t="s">
+        <v>965</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43503.749305555553</v>
+      </c>
+      <c r="D3">
+        <v>81.823499999999996</v>
+      </c>
+      <c r="E3">
+        <v>1944</v>
+      </c>
+      <c r="F3">
+        <v>81.823499999999996</v>
+      </c>
+      <c r="G3" s="1">
+        <v>43503.749305555553</v>
+      </c>
+      <c r="H3" s="1">
+        <v>43474.504861111112</v>
+      </c>
+      <c r="I3" t="s">
+        <v>948</v>
+      </c>
+      <c r="J3" t="b">
+        <f t="shared" ref="J3:J27" si="0">C3&gt;=G3&amp;C3 &lt; H3</f>
+        <v>0</v>
+      </c>
+      <c r="K3" t="b">
+        <f t="shared" ref="K3:K27" si="1">C3&gt;=G3</f>
+        <v>1</v>
+      </c>
+      <c r="L3" t="b">
+        <f t="shared" ref="L3:L27" si="2">C3 &lt; H3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>43510</v>
+      </c>
+      <c r="B4" t="s">
+        <v>966</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43510.529166666667</v>
+      </c>
+      <c r="D4">
+        <v>55.404000000000003</v>
+      </c>
+      <c r="E4">
+        <v>1930</v>
+      </c>
+      <c r="F4">
+        <v>55.404000000000003</v>
+      </c>
+      <c r="G4" s="1">
+        <v>43510.529166666667</v>
+      </c>
+      <c r="H4" s="1">
+        <v>43505.790277777778</v>
+      </c>
+      <c r="I4" t="s">
+        <v>943</v>
+      </c>
+      <c r="J4" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L4" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43517</v>
+      </c>
+      <c r="B5" t="s">
+        <v>967</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43517.43472222222</v>
+      </c>
+      <c r="D5">
+        <v>66.927999999999997</v>
+      </c>
+      <c r="E5">
+        <v>1927</v>
+      </c>
+      <c r="F5">
+        <v>66.927999999999997</v>
+      </c>
+      <c r="G5" s="1">
+        <v>43517.43472222222</v>
+      </c>
+      <c r="H5" s="1">
+        <v>43483.682638888888</v>
+      </c>
+      <c r="I5" t="s">
+        <v>942</v>
+      </c>
+      <c r="J5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K5" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L5" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43539</v>
+      </c>
+      <c r="B6" t="s">
+        <v>968</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43539.586111111108</v>
+      </c>
+      <c r="D6">
+        <v>42.418999999999997</v>
+      </c>
+      <c r="E6">
+        <v>1924</v>
+      </c>
+      <c r="F6">
+        <v>42.418999999999997</v>
+      </c>
+      <c r="G6" s="1">
+        <v>43539.586111111108</v>
+      </c>
+      <c r="H6" s="1">
+        <v>43537.532638888886</v>
+      </c>
+      <c r="I6" t="s">
+        <v>941</v>
+      </c>
+      <c r="J6" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L6" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43548</v>
+      </c>
+      <c r="B7" t="s">
+        <v>969</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43548.768750000003</v>
+      </c>
+      <c r="D7">
+        <v>35.722499999999997</v>
+      </c>
+      <c r="E7">
+        <v>1915</v>
+      </c>
+      <c r="F7">
+        <v>35.722499999999997</v>
+      </c>
+      <c r="G7" s="1">
+        <v>43548.768750000003</v>
+      </c>
+      <c r="H7" s="1">
+        <v>43488.46875</v>
+      </c>
+      <c r="I7" t="s">
+        <v>938</v>
+      </c>
+      <c r="J7" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L7" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43496</v>
+      </c>
+      <c r="B8" t="s">
+        <v>964</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43496.439583333333</v>
+      </c>
+      <c r="D8">
+        <v>34.198999999999998</v>
+      </c>
+      <c r="E8">
+        <v>1912</v>
+      </c>
+      <c r="F8">
+        <v>34.198999999999998</v>
+      </c>
+      <c r="G8" s="1">
+        <v>43496.439583333333</v>
+      </c>
+      <c r="H8" s="1">
+        <v>43488.429166666669</v>
+      </c>
+      <c r="I8" t="s">
+        <v>937</v>
+      </c>
+      <c r="J8" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L8" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43479</v>
+      </c>
+      <c r="B9" t="s">
+        <v>970</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43479.638888888891</v>
+      </c>
+      <c r="D9">
+        <v>84.83</v>
+      </c>
+      <c r="E9">
+        <v>1901</v>
+      </c>
+      <c r="F9">
+        <v>84.83</v>
+      </c>
+      <c r="G9" s="1">
+        <v>43479.638888888891</v>
+      </c>
+      <c r="H9" s="1">
+        <v>43470.854166666664</v>
+      </c>
+      <c r="I9" t="s">
+        <v>933</v>
+      </c>
+      <c r="J9" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L9" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43547</v>
+      </c>
+      <c r="B10" t="s">
+        <v>971</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43547.52847222222</v>
+      </c>
+      <c r="D10">
+        <v>38.927</v>
+      </c>
+      <c r="E10">
+        <v>1898</v>
+      </c>
+      <c r="F10">
+        <v>38.927</v>
+      </c>
+      <c r="G10" s="1">
+        <v>43547.52847222222</v>
+      </c>
+      <c r="H10" s="1">
+        <v>43494.601388888892</v>
+      </c>
+      <c r="I10" t="s">
+        <v>932</v>
+      </c>
+      <c r="J10" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L10" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43540</v>
+      </c>
+      <c r="B11" t="s">
+        <v>972</v>
+      </c>
+      <c r="C11" s="1">
+        <v>43540.647916666669</v>
+      </c>
+      <c r="D11">
+        <v>82.671000000000006</v>
+      </c>
+      <c r="E11">
+        <v>1895</v>
+      </c>
+      <c r="F11">
+        <v>82.671000000000006</v>
+      </c>
+      <c r="G11" s="1">
+        <v>43540.647916666669</v>
+      </c>
+      <c r="H11" s="1">
+        <v>43500.534722222219</v>
+      </c>
+      <c r="I11" t="s">
+        <v>931</v>
+      </c>
+      <c r="J11" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L11" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43523</v>
+      </c>
+      <c r="B12" t="s">
+        <v>973</v>
+      </c>
+      <c r="C12" s="1">
+        <v>43523.432638888888</v>
+      </c>
+      <c r="D12">
+        <v>99.69</v>
+      </c>
+      <c r="E12">
+        <v>1880</v>
+      </c>
+      <c r="F12">
+        <v>99.69</v>
+      </c>
+      <c r="G12" s="1">
+        <v>43523.432638888888</v>
+      </c>
+      <c r="H12" s="1">
+        <v>43517.48541666667</v>
+      </c>
+      <c r="I12" t="s">
+        <v>926</v>
+      </c>
+      <c r="J12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L12" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43543</v>
+      </c>
+      <c r="B13" t="s">
+        <v>974</v>
+      </c>
+      <c r="C13" s="1">
+        <v>43543.511111111111</v>
+      </c>
+      <c r="D13">
+        <v>46.2</v>
+      </c>
+      <c r="E13">
+        <v>1874</v>
+      </c>
+      <c r="F13">
+        <v>46.2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>43543.511111111111</v>
+      </c>
+      <c r="H13" s="1">
+        <v>43538.857638888891</v>
+      </c>
+      <c r="I13" t="s">
+        <v>924</v>
+      </c>
+      <c r="J13" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L13" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43538</v>
+      </c>
+      <c r="B14" t="s">
+        <v>975</v>
+      </c>
+      <c r="C14" s="1">
+        <v>43538.463194444441</v>
+      </c>
+      <c r="D14">
+        <v>32.785499999999999</v>
+      </c>
+      <c r="E14">
+        <v>1863</v>
+      </c>
+      <c r="F14">
+        <v>32.785499999999999</v>
+      </c>
+      <c r="G14" s="1">
+        <v>43538.463194444441</v>
+      </c>
+      <c r="H14" s="1">
+        <v>43472.525694444441</v>
+      </c>
+      <c r="I14" t="s">
+        <v>920</v>
+      </c>
+      <c r="J14" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L14" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43531</v>
+      </c>
+      <c r="B15" t="s">
+        <v>973</v>
+      </c>
+      <c r="C15" s="1">
+        <v>43531.432638888888</v>
+      </c>
+      <c r="D15">
+        <v>16.657499999999999</v>
+      </c>
+      <c r="E15">
+        <v>1854</v>
+      </c>
+      <c r="F15">
+        <v>16.657499999999999</v>
+      </c>
+      <c r="G15" s="1">
+        <v>43531.432638888888</v>
+      </c>
+      <c r="H15" s="1">
+        <v>43503.48333333333</v>
+      </c>
+      <c r="I15" t="s">
+        <v>917</v>
+      </c>
+      <c r="J15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L15" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43543</v>
+      </c>
+      <c r="B16" t="s">
+        <v>976</v>
+      </c>
+      <c r="C16" s="1">
+        <v>43543.79791666667</v>
+      </c>
+      <c r="D16">
+        <v>59.543999999999997</v>
+      </c>
+      <c r="E16">
+        <v>1825</v>
+      </c>
+      <c r="F16">
+        <v>59.543999999999997</v>
+      </c>
+      <c r="G16" s="1">
+        <v>43543.79791666667</v>
+      </c>
+      <c r="H16" s="1">
+        <v>43532.703472222223</v>
+      </c>
+      <c r="I16" t="s">
+        <v>907</v>
+      </c>
+      <c r="J16" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L16" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>43518</v>
+      </c>
+      <c r="B17" t="s">
+        <v>977</v>
+      </c>
+      <c r="C17" s="1">
+        <v>43518.761805555558</v>
+      </c>
+      <c r="D17">
+        <v>66.843000000000004</v>
+      </c>
+      <c r="E17">
+        <v>1810</v>
+      </c>
+      <c r="F17">
+        <v>66.843000000000004</v>
+      </c>
+      <c r="G17" s="1">
+        <v>43518.761805555558</v>
+      </c>
+      <c r="H17" s="1">
+        <v>43494.517361111109</v>
+      </c>
+      <c r="I17" t="s">
+        <v>902</v>
+      </c>
+      <c r="J17" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K17" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L17" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>43538</v>
+      </c>
+      <c r="B18" t="s">
+        <v>978</v>
+      </c>
+      <c r="C18" s="1">
+        <v>43538.745833333334</v>
+      </c>
+      <c r="D18">
+        <v>52.582500000000003</v>
+      </c>
+      <c r="E18">
+        <v>1805</v>
+      </c>
+      <c r="F18">
+        <v>52.582500000000003</v>
+      </c>
+      <c r="G18" s="1">
+        <v>43538.745833333334</v>
+      </c>
+      <c r="H18" s="1">
+        <v>43492.602777777778</v>
+      </c>
+      <c r="I18" t="s">
+        <v>900</v>
+      </c>
+      <c r="J18" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L18" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>43523</v>
+      </c>
+      <c r="B19" t="s">
+        <v>979</v>
+      </c>
+      <c r="C19" s="1">
+        <v>43523.633333333331</v>
+      </c>
+      <c r="D19">
+        <v>61.405500000000004</v>
+      </c>
+      <c r="E19">
+        <v>1795</v>
+      </c>
+      <c r="F19">
+        <v>61.405500000000004</v>
+      </c>
+      <c r="G19" s="1">
+        <v>43523.633333333331</v>
+      </c>
+      <c r="H19" s="1">
+        <v>43474.572916666664</v>
+      </c>
+      <c r="I19" t="s">
+        <v>897</v>
+      </c>
+      <c r="J19" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L19" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>43553</v>
+      </c>
+      <c r="B20" t="s">
+        <v>980</v>
+      </c>
+      <c r="C20" s="1">
+        <v>43553.613888888889</v>
+      </c>
+      <c r="D20">
+        <v>24.513999999999999</v>
+      </c>
+      <c r="E20">
+        <v>1780</v>
+      </c>
+      <c r="F20">
+        <v>24.513999999999999</v>
+      </c>
+      <c r="G20" s="1">
+        <v>43553.613888888889</v>
+      </c>
+      <c r="H20" s="1">
+        <v>43538.722222222219</v>
+      </c>
+      <c r="I20" t="s">
+        <v>892</v>
+      </c>
+      <c r="J20" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K20" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L20" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>43531</v>
+      </c>
+      <c r="B21" t="s">
+        <v>981</v>
+      </c>
+      <c r="C21" s="1">
+        <v>43531.620138888888</v>
+      </c>
+      <c r="D21">
+        <v>13.9825</v>
+      </c>
+      <c r="E21">
+        <v>1769</v>
+      </c>
+      <c r="F21">
+        <v>13.9825</v>
+      </c>
+      <c r="G21" s="1">
+        <v>43531.620138888888</v>
+      </c>
+      <c r="H21" s="1">
+        <v>43526.822222222225</v>
+      </c>
+      <c r="I21" t="s">
+        <v>888</v>
+      </c>
+      <c r="J21" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L21" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>43873</v>
+      </c>
+      <c r="B22" t="s">
+        <v>982</v>
+      </c>
+      <c r="C22" s="1">
+        <v>43873.434027777781</v>
+      </c>
+      <c r="D22">
+        <v>37.56</v>
+      </c>
+      <c r="E22">
+        <v>1347</v>
+      </c>
+      <c r="F22">
+        <v>37.56</v>
+      </c>
+      <c r="G22" s="1">
+        <v>43873.434027777781</v>
+      </c>
+      <c r="H22" s="1">
+        <v>43535.671527777777</v>
+      </c>
+      <c r="I22" t="s">
+        <v>680</v>
+      </c>
+      <c r="J22" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K22" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L22" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>43901</v>
+      </c>
+      <c r="B23" t="s">
+        <v>983</v>
+      </c>
+      <c r="C23" s="1">
+        <v>43901.460416666669</v>
+      </c>
+      <c r="D23">
+        <v>48.250999999999998</v>
+      </c>
+      <c r="E23">
+        <v>1173</v>
+      </c>
+      <c r="F23">
+        <v>48.250999999999998</v>
+      </c>
+      <c r="G23" s="1">
+        <v>43901.460416666669</v>
+      </c>
+      <c r="H23" s="1">
+        <v>43498.862500000003</v>
+      </c>
+      <c r="I23" t="s">
+        <v>595</v>
+      </c>
+      <c r="J23" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K23" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L23" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>43851</v>
+      </c>
+      <c r="B24" t="s">
+        <v>984</v>
+      </c>
+      <c r="C24" s="1">
+        <v>43851.75</v>
+      </c>
+      <c r="D24">
+        <v>49.203000000000003</v>
+      </c>
+      <c r="E24">
+        <v>669</v>
+      </c>
+      <c r="F24">
+        <v>49.203000000000003</v>
+      </c>
+      <c r="G24" s="1">
+        <v>43851.75</v>
+      </c>
+      <c r="H24" s="1">
+        <v>43490.424305555556</v>
+      </c>
+      <c r="I24" t="s">
+        <v>345</v>
+      </c>
+      <c r="J24" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K24" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L24" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>43895</v>
+      </c>
+      <c r="B25" t="s">
+        <v>985</v>
+      </c>
+      <c r="C25" s="1">
+        <v>43895.444444444445</v>
+      </c>
+      <c r="D25">
+        <v>79.182000000000002</v>
+      </c>
+      <c r="E25">
+        <v>626</v>
+      </c>
+      <c r="F25">
+        <v>79.182000000000002</v>
+      </c>
+      <c r="G25" s="1">
+        <v>43895.444444444445</v>
+      </c>
+      <c r="H25" s="1">
+        <v>43527.791666666664</v>
+      </c>
+      <c r="I25" t="s">
+        <v>324</v>
+      </c>
+      <c r="J25" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K25" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L25" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>43899</v>
+      </c>
+      <c r="B26" t="s">
+        <v>986</v>
+      </c>
+      <c r="C26" s="1">
+        <v>43899.710416666669</v>
+      </c>
+      <c r="D26">
+        <v>21.683499999999999</v>
+      </c>
+      <c r="E26">
+        <v>87</v>
+      </c>
+      <c r="F26">
+        <v>21.683499999999999</v>
+      </c>
+      <c r="G26" s="1">
+        <v>43899.710416666669</v>
+      </c>
+      <c r="H26" s="1">
+        <v>43537.694444444445</v>
+      </c>
+      <c r="I26" t="s">
+        <v>56</v>
+      </c>
+      <c r="J26" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K26" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L26" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>43878</v>
+      </c>
+      <c r="B27" t="s">
+        <v>987</v>
+      </c>
+      <c r="C27" s="1">
+        <v>43878.46875</v>
+      </c>
+      <c r="D27">
+        <v>27.648</v>
+      </c>
+      <c r="E27">
+        <v>30</v>
+      </c>
+      <c r="F27">
+        <v>27.648</v>
+      </c>
+      <c r="G27" s="1">
+        <v>43878.46875</v>
+      </c>
+      <c r="H27" s="1">
+        <v>43494.658333333333</v>
+      </c>
+      <c r="I27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J27" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K27" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L27" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
